--- a/attendance/attendance-2018-10-formula.xlsx
+++ b/attendance/attendance-2018-10-formula.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="1" r:id="rId1"/>
@@ -725,11 +725,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AJ22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="21" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="21" topLeftCell="X22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -766,11 +766,11 @@
       </c>
       <c r="B3" s="1">
         <f>COUNTIF(F16:AJ16,1)*0.5+COUNTIF(F17:AJ17,1)*0.5+COUNTIF(F16:AJ16,-1)*0.5+COUNTIF(F17:AJ17,-1)*0.5</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <f>COUNTIF(F16:AJ16,1)*0.5+COUNTIF(F17:AJ17,1)*0.5</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <f>COUNTIF(F16:AJ16,-1)*0.5+COUNTIF(F17:AJ17,-1)*0.5</f>
@@ -787,11 +787,11 @@
       </c>
       <c r="B4" s="1">
         <f>COUNTIF(F18:AJ18,1)*0.5+COUNTIF(F19:AJ19,1)*0.5+COUNTIF(F18:AJ18,-1)*0.5+COUNTIF(F19:AJ19,-1)*0.5</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <f>COUNTIF(F18:AJ18,1)*0.5+COUNTIF(F19:AJ19,1)*0.5</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <f>COUNTIF(F18:AJ18,-1)*0.5+COUNTIF(F19:AJ19,-1)*0.5</f>
@@ -808,11 +808,11 @@
       </c>
       <c r="B5" s="1">
         <f>COUNTIF(F20:AJ20,1)*0.5+COUNTIF(F21:AJ21,1)*0.5 +COUNTIF(F20:AJ20,-1)*0.5+COUNTIF(F21:AJ21,-1)*0.5</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <f>COUNTIF(F20:AJ20,1)*0.5+COUNTIF(F21:AJ21,1)*0.5</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <f>COUNTIF(F20:AJ20,-1)*0.5+COUNTIF(F21:AJ21,-1)*0.5</f>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B16" s="24">
         <f>(COUNTIF(F16:AJ16,"&gt;0")+COUNTIF(F17:AJ17,"&gt;0"))/2</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C16" s="24">
         <f>(COUNTIF(F16:AJ16,"&lt;0")+COUNTIF(F17:AJ17,"&lt;0"))/2</f>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="D16" s="22">
         <f>(COUNTIF(F16:AJ16,"=0")+COUNTIF(F17:AJ17,"=0"))/2</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>7</v>
@@ -1069,16 +1069,16 @@
         <v>1</v>
       </c>
       <c r="N16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="6">
         <v>0</v>
@@ -1087,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="T16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="6">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="9">
         <v>0</v>
@@ -1171,16 +1171,16 @@
         <v>1</v>
       </c>
       <c r="N17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="7">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="T17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="7">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="10">
         <v>0</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B18" s="24">
         <f>(COUNTIF(F18:AJ18,"&gt;0")+COUNTIF(F19:AJ19,"&gt;0"))/2</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C18" s="24">
         <f>(COUNTIF(F18:AJ18,"&lt;0")+COUNTIF(F19:AJ19,"&lt;0"))/2</f>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="D18" s="22">
         <f>(COUNTIF(F18:AJ18,"=0")+COUNTIF(F19:AJ19,"=0"))/2</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>7</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="N18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="T18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="6">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="9">
         <v>0</v>
@@ -1386,16 +1386,16 @@
         <v>1</v>
       </c>
       <c r="N19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="7">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="T19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="7">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="10">
         <v>0</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B20" s="24">
         <f>(COUNTIF(F20:AJ20,"&gt;0")+COUNTIF(F21:AJ21,"&gt;0"))/2</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C20" s="24">
         <f>(COUNTIF(F20:AJ20,"&lt;0")+COUNTIF(F21:AJ21,"&lt;0"))/2</f>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="D20" s="24">
         <f>(COUNTIF(F20:AJ20,"=0")+COUNTIF(F21:AJ21,"=0"))/2</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>7</v>
@@ -1499,16 +1499,16 @@
         <v>1</v>
       </c>
       <c r="N20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="6">
         <v>0</v>
@@ -1517,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="T20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="6">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="9">
         <v>0</v>
@@ -1601,16 +1601,16 @@
         <v>1</v>
       </c>
       <c r="N21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="7">
         <v>0</v>
@@ -1619,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="T21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="7">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="10">
         <v>0</v>
@@ -1699,7 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
